--- a/docentes/Polanco Domínguez Rosa María Estadisticos 2020.xlsx
+++ b/docentes/Polanco Domínguez Rosa María Estadisticos 2020.xlsx
@@ -1285,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1308,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1400,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1423,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1446,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1469,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1492,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1515,7 +1515,7 @@
         <v>13</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1538,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1584,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1630,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1653,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1676,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1699,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1722,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1745,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1768,7 +1768,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1791,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1814,7 +1814,7 @@
         <v>12</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1837,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1860,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1883,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1906,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1952,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1975,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1998,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2021,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2044,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2067,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2090,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2113,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2136,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2159,7 +2159,7 @@
         <v>14</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
